--- a/数据整理/stocks/A股/深证主板/002840-华统股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002840-华统股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +671,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -690,13 +711,1013 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8823</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7979</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6897</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6189</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3759</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2813</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>67.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>67.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002840-华统股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002840-华统股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1664,7 +1665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1675,17 +1676,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1695,14 +1716,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.93</v>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8657</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1711,13 +1754,461 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2646</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2410</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002840-华统股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002840-华统股份.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008050</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>同泰慧择混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.72</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0526</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002662</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深大消费主题混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0276</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.93</v>
       </c>
     </row>
     <row r="4">
@@ -580,74 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002663</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源沪港深大消费主题混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008051</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>同泰慧择混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.72</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -656,6 +532,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8657</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2646</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2410</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1659,13 +2009,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1716,36 +2066,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>720001</t>
+          <t>008050</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通价值动量混合</t>
+          <t>同泰慧择混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.84</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.30</t>
+          <t>89.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8657</t>
+          <t>0.0526</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1754,36 +2104,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010418</t>
+          <t>002662</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通景气行业一年封闭运作混合</t>
+          <t>前海开源沪港深大消费主题混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>91.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2646</t>
+          <t>0.0276</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1792,36 +2142,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008983</t>
+          <t>002663</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>财通科技创新混合A</t>
+          <t>前海开源沪港深大消费主题混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>91.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2410</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1830,386 +2180,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501015</t>
+          <t>008051</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通多策略升级混合（LOF）</t>
+          <t>同泰慧择混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>97.12</t>
+          <t>89.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.34</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1943</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501046</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>财通多策略福鑫定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.81</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1703</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008984</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>财通科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0624</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
         <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>015271</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>财通多策略升级混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>97.12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.34</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0517</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005851</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>财通新视野灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0501</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005959</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>财通新视野灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0476</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>350009</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>天治研究驱动混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002043</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>天治研究驱动混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.93</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002840-华统股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002840-华统股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>2.98</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>5.93</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -532,6 +549,1352 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9184</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4989</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6252</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014915</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4243</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2345</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2106</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013993</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2030</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013994</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014916</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015041</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015668</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>016234</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1005,7 +2368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2009,7 +3372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002840-华统股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002840-华统股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>7.87</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>2.98</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>5.93</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -549,6 +566,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6002</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1894,7 +2233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2368,7 +2707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3372,7 +3711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
